--- a/medicine/Enfance/Max_Velthuijs/Max_Velthuijs.xlsx
+++ b/medicine/Enfance/Max_Velthuijs/Max_Velthuijs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Velthuijs, né à La Haye le 22 mai 1923 et mort à La Haye le 25 janvier 2005, est un auteur et illustrateur néerlandais de livres pour enfants. Il est lauréat en 2004 du prestigieux prix international, le  Prix Hans Christian Andersen, dans la catégorie Illustration.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Velthuis, après une carrière commencée dans la publicité, illustre ses premiers livres pour enfants à partir de 1962. Il connaît une renommée internationale avec les histoires de Petit-Bond, une grenouille qui se pose des questions sur la vie. Petit-Bond est amoureux, le premier livre de cette série publié pour la première fois en 1989, a été traduit dans plus de 50 langues.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petit-Bond est amoureux, L'École des loisirs, Lutin poche, 1989
 Le Chef-d'œuvre de crocodile, L'École des Loisirs, Pastel, 1991
@@ -585,12 +601,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1971 :  Plaque d'Or de Bratislava à la  Biennale d'illustration de Bratislava (BIB)[1] pour ses illustrations de l'album jeunesse Der Junge und der Fisch
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1971 :  Plaque d'Or de Bratislava à la  Biennale d'illustration de Bratislava (BIB) pour ses illustrations de l'album jeunesse Der Junge und der Fisch
 1977 : Gouden Penseel (nl)
 1986 : Gouden Penseel (nl)
-1992 : Gouden Griffel[2]
+1992 : Gouden Griffel
 2004 : Prix Hans Christian Andersen d’illustration.</t>
         </is>
       </c>
